--- a/BOMs/BOM_globale.xlsx
+++ b/BOMs/BOM_globale.xlsx
@@ -24,6 +24,7 @@
     <definedName name="SKY_R" localSheetId="1">ele_sky_R!$A$2:$I$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -656,9 +657,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -683,15 +681,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,11 +1022,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1093,11 +1098,11 @@
       <c r="A7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <f>B6+C6</f>
         <v>129.50800000000001</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1113,7 +1118,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,16 +1134,16 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1159,7 +1164,7 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1168,7 +1173,7 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1183,38 +1188,38 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1.85</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>H3*D3</f>
         <v>1.85</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>2.16</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>K3*D3</f>
         <v>2.16</v>
       </c>
@@ -1224,38 +1229,38 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1.28</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I18" si="0">H4*D4</f>
         <v>1.28</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>1.05</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:L20" si="1">K4*D4</f>
         <v>1.05</v>
       </c>
@@ -1265,38 +1270,38 @@
         <f t="shared" ref="A5:A20" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1306,38 +1311,38 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1347,38 +1352,38 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>45300005</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>6.71</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>6.71</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>8.23</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>8.23</v>
       </c>
@@ -1388,38 +1393,38 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.45</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.45</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
@@ -1429,38 +1434,38 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.45</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4">
         <v>0.45</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -1470,38 +1475,38 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.45</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.45</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
@@ -1511,38 +1516,38 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>1.593</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0.58199999999999996</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>1.746</v>
       </c>
@@ -1552,38 +1557,38 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0.35099999999999998</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>0.35099999999999998</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>0.27100000000000002</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>0.27100000000000002</v>
       </c>
@@ -1593,38 +1598,38 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.45</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0.442</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>0.442</v>
       </c>
@@ -1634,38 +1639,38 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.108</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.125</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -1675,38 +1680,38 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.621</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0.621</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>0.57099999999999995</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>0.57099999999999995</v>
       </c>
@@ -1716,38 +1721,38 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>0.34200000000000003</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>0.307</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="1"/>
         <v>0.307</v>
       </c>
@@ -1757,38 +1762,38 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.41</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>0.36099999999999999</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="1"/>
         <v>0.36099999999999999</v>
       </c>
@@ -1798,38 +1803,38 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4">
         <v>0.45</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="J18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4">
         <v>0.45</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
@@ -1839,37 +1844,37 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="11" t="s">
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <v>1.66</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <f t="shared" si="1"/>
         <v>1.66</v>
       </c>
@@ -1879,109 +1884,109 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>2</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <f>0.575/5</f>
         <v>0.11499999999999999</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="18">
         <f>SUM(I3:I18)+L19+L20</f>
         <v>19.204999999999998</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="18">
         <f>SUM(L3:L20)</f>
         <v>20.753000000000004</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="18">
         <v>5.8</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="18">
         <v>5.8</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="18">
         <f>G23+G22</f>
         <v>25.004999999999999</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="18">
         <f>J23+J22</f>
         <v>26.553000000000004</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14" t="s">
+      <c r="K24" s="18"/>
+      <c r="L24" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="13"/>
+      <c r="G25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2027,7 +2032,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,40 +2042,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2093,543 +2098,543 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <f>H3*D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <f>K3*D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.32400000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I16" si="0">H4*D4</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:L16" si="1">K4*D4</f>
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.36899999999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>0.36899999999999999</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1.69</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>1.69</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>1.74</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>1.74</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>45300005</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>4.6399999999999997</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>5.88</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>5.88</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="J9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5">
+      <c r="G10" s="5"/>
+      <c r="H10" s="4">
         <v>0.45</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5">
+      <c r="J10" s="5"/>
+      <c r="K10" s="4">
         <v>0.45</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>7</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5">
+      <c r="G15" s="5"/>
+      <c r="H15" s="4">
         <v>0.45</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>3.15</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5">
+      <c r="J15" s="5"/>
+      <c r="K15" s="4">
         <v>0.45</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5">
+      <c r="G16" s="5"/>
+      <c r="H16" s="4">
         <v>0.45</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5">
+      <c r="J16" s="5"/>
+      <c r="K16" s="4">
         <v>0.45</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
@@ -2645,63 +2650,63 @@
       </c>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="18">
         <f>SUM(I3:I16)</f>
         <v>11.072999999999999</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="18">
         <f>SUM(L3:L16)</f>
         <v>12.334999999999999</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="18">
         <v>2.6</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="18">
         <v>2.6</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="18">
         <f>G21+G20</f>
         <v>13.672999999999998</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="18">
         <f>J21+J20</f>
         <v>14.934999999999999</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2744,10 +2749,14 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2759,10 +2768,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2770,62 +2779,62 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1.03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3.38</v>
       </c>
     </row>
@@ -2850,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,171 +2870,175 @@
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <v>14.42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>8.06</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>6.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>6.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G7">
+        <f>SUM(F2:F3)+2</f>
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>21.69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>9.24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>10</v>
       </c>

--- a/BOMs/BOM_globale.xlsx
+++ b/BOMs/BOM_globale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="5" r:id="rId1"/>
@@ -20,11 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="SKY_G" localSheetId="2">ele_sky_G!$A$2:$F$16</definedName>
+    <definedName name="SKY_G" localSheetId="1">ele_sky_R!$A$22:$F$36</definedName>
     <definedName name="SKY_G_1" localSheetId="2">ele_sky_G!$A$2:$F$16</definedName>
+    <definedName name="SKY_G_1" localSheetId="1">ele_sky_R!$A$22:$F$36</definedName>
     <definedName name="SKY_R" localSheetId="1">ele_sky_R!$A$2:$I$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,35 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="SKY_R" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="SKY_G11" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="E:\Daverni\work_ide\ele_ide\pcb\ele_pcb_sky_g\exports\SKY_G.csv" tab="0" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="SKY_G2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="E:\Daverni\work_ide\ele_ide\pcb\ele_pcb_sky_g\exports\SKY_G.csv" tab="0" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="SKY_R" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="E:\Daverni\work_ide\ele_ide\pcb\ele_pcb_sky_r\exports\SKY_R.csv" tab="0" semicolon="1">
       <textFields count="8">
         <textField/>
@@ -81,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="160">
   <si>
     <t>Mouser</t>
   </si>
@@ -675,15 +704,15 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -701,7 +730,67 @@
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -746,14 +835,22 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_R" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_R" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1022,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1149,7 @@
         <v>51.660000000000004</v>
       </c>
       <c r="C2">
-        <f>ele_sky_R!J24</f>
+        <f>ele_sky_R!J46</f>
         <v>26.553000000000004</v>
       </c>
     </row>
@@ -1115,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,84 +2018,763 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="13" t="s">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f>H23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f>K23*D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" ref="I24:I36" si="3">H24*D24</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:L36" si="4">K24*D24</f>
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="3"/>
+        <v>1.69</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="4"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45300005</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="4"/>
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="3"/>
+        <v>3.15</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="4"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F40" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G40" s="18">
+        <f>SUM(I23:I36)</f>
+        <v>11.072999999999999</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="18">
+        <f>SUM(L23:L36)</f>
+        <v>12.334999999999999</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="18">
+        <f>G41+G40</f>
+        <v>13.672999999999998</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="18">
+        <f>J41+J40</f>
+        <v>14.934999999999999</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="18">
         <f>SUM(I3:I18)+L19+L20</f>
         <v>19.204999999999998</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="13" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J44" s="18">
         <f>SUM(L3:L20)</f>
         <v>20.753000000000004</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="13" t="s">
+      <c r="K44" s="18"/>
+      <c r="L44" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F23" s="13" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G45" s="18">
         <v>5.8</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="13" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J45" s="18">
         <v>5.8</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="13" t="s">
+      <c r="K45" s="18"/>
+      <c r="L45" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="13" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="18">
-        <f>G23+G22</f>
+      <c r="G46" s="18">
+        <f>G45+G44</f>
         <v>25.004999999999999</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="13" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="18">
-        <f>J23+J22</f>
+      <c r="J46" s="18">
+        <f>J45+J44</f>
         <v>26.553000000000004</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="13" t="s">
+      <c r="K46" s="18"/>
+      <c r="L46" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
+  <mergeCells count="16">
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="J46:K46"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
   </mergeCells>
+  <conditionalFormatting sqref="H22:J22">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:L22">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
@@ -2022,6 +2798,14 @@
     <hyperlink ref="G17" r:id="rId20"/>
     <hyperlink ref="J19" r:id="rId21"/>
     <hyperlink ref="J20" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="J24" r:id="rId24"/>
+    <hyperlink ref="G25" r:id="rId25"/>
+    <hyperlink ref="J25" r:id="rId26"/>
+    <hyperlink ref="J26" r:id="rId27"/>
+    <hyperlink ref="G26" r:id="rId28"/>
+    <hyperlink ref="J27" r:id="rId29"/>
+    <hyperlink ref="G27" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2032,7 +2816,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L22" sqref="A1:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +3434,7 @@
       </c>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="18">
@@ -2658,7 +3442,7 @@
         <v>11.072999999999999</v>
       </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="18">
@@ -2666,31 +3450,31 @@
         <v>12.334999999999999</v>
       </c>
       <c r="K20" s="18"/>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="18">
         <v>2.6</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>88</v>
       </c>
       <c r="J21" s="18">
         <v>2.6</v>
       </c>
       <c r="K21" s="18"/>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="18">
@@ -2698,7 +3482,7 @@
         <v>13.672999999999998</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>88</v>
       </c>
       <c r="J22" s="18">
@@ -2706,7 +3490,7 @@
         <v>14.934999999999999</v>
       </c>
       <c r="K22" s="18"/>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2722,13 +3506,13 @@
     <mergeCell ref="J21:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:J2">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
@@ -2768,7 +3552,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2791,7 +3575,7 @@
       <c r="D3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>132</v>
       </c>
       <c r="F3" s="4">
@@ -2811,7 +3595,7 @@
       <c r="D4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="4">
@@ -2831,7 +3615,7 @@
       <c r="D5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F5" s="4">
@@ -2904,7 +3688,7 @@
       <c r="E2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>14.42</v>
       </c>
     </row>
@@ -2922,7 +3706,7 @@
       <c r="E3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>9.3800000000000008</v>
       </c>
     </row>
@@ -2940,7 +3724,7 @@
       <c r="E4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>8.06</v>
       </c>
     </row>
@@ -2958,7 +3742,7 @@
       <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>6.6</v>
       </c>
     </row>
@@ -2976,7 +3760,7 @@
       <c r="E6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>6.6</v>
       </c>
     </row>
@@ -2994,7 +3778,7 @@
       <c r="E7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>6.6</v>
       </c>
       <c r="G7">
@@ -3016,7 +3800,7 @@
       <c r="E8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>21.69</v>
       </c>
     </row>
@@ -3034,7 +3818,7 @@
       <c r="E9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>9.24</v>
       </c>
     </row>

--- a/BOMs/BOM_globale.xlsx
+++ b/BOMs/BOM_globale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="5" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
   <si>
     <t>Mouser</t>
   </si>
@@ -449,9 +449,6 @@
     <t>BOM pcb sky_r</t>
   </si>
   <si>
-    <t>total (HT)</t>
-  </si>
-  <si>
     <t>IC</t>
   </si>
   <si>
@@ -522,6 +519,39 @@
   </si>
   <si>
     <t>T + 7</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>raison</t>
+  </si>
+  <si>
+    <t>douane</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>total commande(TTC</t>
+  </si>
+  <si>
+    <t>total unité (TC)</t>
+  </si>
+  <si>
+    <t>total unité (HT)</t>
+  </si>
+  <si>
+    <t>nombre d'unité</t>
+  </si>
+  <si>
+    <t>Revente</t>
+  </si>
+  <si>
+    <t>Gain</t>
   </si>
 </sst>
 </file>
@@ -581,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -641,13 +671,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,17 +720,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -692,28 +758,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1426,91 +1482,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>4.625148818445779</c:v>
+                  <c:v>5.1476125563615911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2483362311889201</c:v>
+                  <c:v>2.5023116593424399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.622673507318869</c:v>
+                  <c:v>19.613357101322173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.768639777992857E-2</c:v>
+                  <c:v>4.1943509718501852E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0984471491096588E-2</c:v>
+                  <c:v>2.3354908820529437E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1826505528765856</c:v>
+                  <c:v>0.20328303289705729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7386619615770043</c:v>
+                  <c:v>4.1609868163922856</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58028487490685465</c:v>
+                  <c:v>0.64583472350647742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94644248970047873</c:v>
+                  <c:v>1.0533540508851034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26765907514153814</c:v>
+                  <c:v>0.29789424515981427</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2226666552465459</c:v>
+                  <c:v>1.3607809118900316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6573706885476176</c:v>
+                  <c:v>0.73162826611250387</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77299940900876207</c:v>
+                  <c:v>0.86031858002154371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94215994449821427</c:v>
+                  <c:v>1.0485877429625463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5545125178796257</c:v>
+                  <c:v>3.9560355757223329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49249269826043013</c:v>
+                  <c:v>0.54812541109405821</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71518504877818989</c:v>
+                  <c:v>0.79597342306702379</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.70876123097479293</c:v>
+                  <c:v>0.7888239611831882</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7258143259702106</c:v>
+                  <c:v>4.1466878926246151</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.590682894657954</c:v>
+                  <c:v>14.012945292317664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1826505528765856</c:v>
+                  <c:v>0.20328303289705729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5951196114875002E-2</c:v>
+                  <c:v>7.3401142007378239E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.4215994449821424E-3</c:v>
+                  <c:v>1.0485877429625463E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2055107791662745</c:v>
+                  <c:v>2.4546485801168698</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.3681961063099024</c:v>
+                  <c:v>4.8616340810081686</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0706363005661526</c:v>
+                  <c:v>1.1915769806392571</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.813426635718141</c:v>
+                  <c:v>12.034927504456496</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3982253132681821</c:v>
+                  <c:v>2.6691324366319362</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.567308762943993</c:v>
+                  <c:v>6.1962002993241372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,7 +1594,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2474,19 +2529,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="A2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>109</v>
       </c>
@@ -2494,26 +2551,83 @@
         <v>110</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>mec!F3</f>
         <v>46.41</v>
       </c>
       <c r="B2" s="8">
         <f>ele!B57</f>
-        <v>46.7012</v>
+        <v>41.961200000000005</v>
       </c>
       <c r="C2" s="8">
         <f>B2+A2</f>
-        <v>93.111199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+        <v>88.371200000000002</v>
+      </c>
+      <c r="D2">
+        <f>C2+B5</f>
+        <v>123.3712</v>
+      </c>
+      <c r="E2">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>E2*D2</f>
+        <v>616.85599999999999</v>
+      </c>
+      <c r="G2">
+        <f>E2*130</f>
+        <v>650</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>33.144000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2528,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,19 +2654,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2560,18 +2674,18 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="18" t="s">
-        <v>125</v>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2608,23 +2722,23 @@
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2662,12 +2776,12 @@
         <f>J5*C5</f>
         <v>2.16</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>124</v>
+      <c r="L5" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M5">
-        <f>(K5/$B$57)*100</f>
-        <v>4.625148818445779</v>
+        <f t="shared" ref="M5:M20" si="0">(K5/$B$57)*100</f>
+        <v>5.1476125563615911</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2693,7 +2807,7 @@
         <v>1.28</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H18" si="0">G6*C6</f>
+        <f t="shared" ref="H6:H17" si="1">G6*C6</f>
         <v>1.28</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -2703,15 +2817,15 @@
         <v>1.05</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" ref="K6:K20" si="1">J6*C6</f>
+        <f t="shared" ref="K6:K20" si="2">J6*C6</f>
         <v>1.05</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>126</v>
+      <c r="L6" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="M6">
-        <f>(K6/$B$57)*100</f>
-        <v>2.2483362311889201</v>
+        <f t="shared" si="0"/>
+        <v>2.5023116593424399</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2737,7 +2851,7 @@
         <v>6.71</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.71</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -2747,15 +2861,15 @@
         <v>8.23</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.23</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>124</v>
+      <c r="L7" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M7">
-        <f>(K7/$B$57)*100</f>
-        <v>17.622673507318869</v>
+        <f t="shared" si="0"/>
+        <v>19.613357101322173</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2772,7 +2886,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -2784,21 +2898,21 @@
         <v>13</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J8" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>127</v>
+      <c r="L8" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M8">
-        <f>(K8/$B$57)*100</f>
-        <v>3.768639777992857E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1943509718501852E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2815,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -2827,21 +2941,21 @@
         <v>13</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>127</v>
+      <c r="L9" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M9">
-        <f>(K9/$B$57)*100</f>
-        <v>2.0984471491096588E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3354908820529437E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2858,7 +2972,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -2870,21 +2984,21 @@
         <v>13</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10" s="3">
         <v>8.5300000000000001E-2</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>127</v>
+      <c r="L10" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M10">
-        <f>(K10/$B$57)*100</f>
-        <v>0.1826505528765856</v>
+        <f t="shared" si="0"/>
+        <v>0.20328303289705729</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2910,7 +3024,7 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.593</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -2920,15 +3034,15 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.746</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>128</v>
+      <c r="L11" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M11">
-        <f>(K11/$B$57)*100</f>
-        <v>3.7386619615770043</v>
+        <f t="shared" si="0"/>
+        <v>4.1609868163922856</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,7 +3068,7 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35099999999999998</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -2964,15 +3078,15 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27100000000000002</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>124</v>
+      <c r="L12" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M12">
-        <f>(K12/$B$57)*100</f>
-        <v>0.58028487490685465</v>
+        <f t="shared" si="0"/>
+        <v>0.64583472350647742</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2998,7 +3112,7 @@
         <v>0.45</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -3008,15 +3122,15 @@
         <v>0.442</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.442</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>128</v>
+      <c r="L13" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M13">
-        <f>(K13/$B$57)*100</f>
-        <v>0.94644248970047873</v>
+        <f t="shared" si="0"/>
+        <v>1.0533540508851034</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3042,7 +3156,7 @@
         <v>0.108</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -3052,15 +3166,15 @@
         <v>0.125</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>127</v>
+      <c r="L14" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M14">
-        <f>(K14/$B$57)*100</f>
-        <v>0.26765907514153814</v>
+        <f t="shared" si="0"/>
+        <v>0.29789424515981427</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3086,7 +3200,7 @@
         <v>0.621</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.621</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -3096,15 +3210,15 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57099999999999995</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>124</v>
+      <c r="L15" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M15">
-        <f>(K15/$B$57)*100</f>
-        <v>1.2226666552465459</v>
+        <f t="shared" si="0"/>
+        <v>1.3607809118900316</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3130,7 +3244,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -3140,15 +3254,15 @@
         <v>0.307</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.307</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>128</v>
+      <c r="L16" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M16">
-        <f>(K16/$B$57)*100</f>
-        <v>0.6573706885476176</v>
+        <f t="shared" si="0"/>
+        <v>0.73162826611250387</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3174,7 +3288,7 @@
         <v>0.41</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -3184,15 +3298,15 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36099999999999999</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>128</v>
+      <c r="L17" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M17">
-        <f>(K17/$B$57)*100</f>
-        <v>0.77299940900876207</v>
+        <f t="shared" si="0"/>
+        <v>0.86031858002154371</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>29</v>
@@ -3221,21 +3335,21 @@
         <v>13</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" s="3">
         <v>0.44</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>127</v>
+      <c r="L18" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M18">
-        <f>(K18/$B$57)*100</f>
-        <v>0.94215994449821427</v>
+        <f t="shared" si="0"/>
+        <v>1.0485877429625463</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3270,15 +3384,15 @@
         <v>1.66</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.66</v>
       </c>
-      <c r="L19" s="18" t="s">
-        <v>126</v>
+      <c r="L19" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="M19">
-        <f>(K19/$B$57)*100</f>
-        <v>3.5545125178796257</v>
+        <f t="shared" si="0"/>
+        <v>3.9560355757223329</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3314,31 +3428,31 @@
         <v>0.11499999999999999</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="L20" s="18" t="s">
-        <v>128</v>
+      <c r="L20" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M20">
-        <f>(K20/$B$57)*100</f>
-        <v>0.49249269826043013</v>
+        <f t="shared" si="0"/>
+        <v>0.54812541109405821</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -3374,7 +3488,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23:H26" si="2">G23*C23</f>
+        <f t="shared" ref="H23:H26" si="3">G23*C23</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -3384,15 +3498,15 @@
         <v>0.33400000000000002</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" ref="K23:K27" si="3">J23*C23</f>
+        <f t="shared" ref="K23:K27" si="4">J23*C23</f>
         <v>0.33400000000000002</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>124</v>
+      <c r="L23" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M23">
-        <f>(K23/$B$57)*100</f>
-        <v>0.71518504877818989</v>
+        <f t="shared" ref="M23:M29" si="5">(K23/$B$57)*100</f>
+        <v>0.79597342306702379</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3416,7 +3530,7 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36899999999999999</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -3426,15 +3540,15 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33100000000000002</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>124</v>
+      <c r="L24" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M24">
-        <f>(K24/$B$57)*100</f>
-        <v>0.70876123097479293</v>
+        <f t="shared" si="5"/>
+        <v>0.7888239611831882</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3458,7 +3572,7 @@
         <v>1.69</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.69</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -3468,15 +3582,15 @@
         <v>1.74</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.74</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>124</v>
+      <c r="L25" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M25">
-        <f>(K25/$B$57)*100</f>
-        <v>3.7258143259702106</v>
+        <f t="shared" si="5"/>
+        <v>4.1466878926246151</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3502,7 +3616,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="I26" s="5" t="s">
@@ -3512,15 +3626,15 @@
         <v>5.88</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.88</v>
       </c>
-      <c r="L26" s="18" t="s">
-        <v>124</v>
+      <c r="L26" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M26">
-        <f>(K26/$B$57)*100</f>
-        <v>12.590682894657954</v>
+        <f t="shared" si="5"/>
+        <v>14.012945292317664</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3537,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3549,21 +3663,21 @@
         <v>13</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J27" s="3">
         <v>8.5300000000000001E-2</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="L27" s="18" t="s">
-        <v>127</v>
+      <c r="L27" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M27">
-        <f>(K27/$B$57)*100</f>
-        <v>0.1826505528765856</v>
+        <f t="shared" si="5"/>
+        <v>0.20328303289705729</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3579,8 +3693,8 @@
       <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>137</v>
+      <c r="E28" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3589,25 +3703,25 @@
         <v>0.45</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28" si="4">G28*C28</f>
+        <f t="shared" ref="H28" si="6">G28*C28</f>
         <v>3.15</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" ref="K28" si="5">J28*C28</f>
+        <f t="shared" ref="K28" si="7">J28*C28</f>
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>127</v>
+      <c r="L28" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M28">
-        <f>(K28/$B$57)*100</f>
-        <v>6.5951196114875002E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3401142007378239E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,7 +3738,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
@@ -3633,41 +3747,41 @@
         <v>0.45</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29" si="6">G29*C29</f>
+        <f t="shared" ref="H29" si="8">G29*C29</f>
         <v>0.45</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J29" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" ref="K29" si="7">J29*C29</f>
+        <f t="shared" ref="K29" si="9">J29*C29</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L29" s="18" t="s">
-        <v>127</v>
+      <c r="L29" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="M29">
-        <f>(K29/$B$57)*100</f>
-        <v>9.4215994449821424E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.0485877429625463E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -3700,12 +3814,12 @@
         <f>J31*C31</f>
         <v>1.03</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>128</v>
+      <c r="L31" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M31">
         <f>(K31/$B$57)*100</f>
-        <v>2.2055107791662745</v>
+        <v>2.4546485801168698</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3736,15 +3850,15 @@
         <v>1.02</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" ref="K32:K33" si="8">J32*C32</f>
+        <f t="shared" ref="K32:K33" si="10">J32*C32</f>
         <v>2.04</v>
       </c>
-      <c r="L32" s="18" t="s">
-        <v>124</v>
+      <c r="L32" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M32">
         <f>(K32/$B$57)*100</f>
-        <v>4.3681961063099024</v>
+        <v>4.8616340810081686</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3754,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
@@ -3768,22 +3882,22 @@
       <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>143</v>
+      <c r="I33" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="J33" s="3">
         <v>0.5</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="L33" s="18" t="s">
-        <v>126</v>
+      <c r="L33" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="M33">
         <f>(K33/$B$57)*100</f>
-        <v>1.0706363005661526</v>
+        <v>1.1915769806392571</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
@@ -3806,120 +3920,120 @@
       <c r="K34" s="3">
         <v>5.05</v>
       </c>
-      <c r="L34" s="18" t="s">
-        <v>128</v>
+      <c r="L34" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M34">
         <f>(K34/$B$57)*100</f>
-        <v>10.813426635718141</v>
+        <v>12.034927504456496</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="M37">
         <f>(A37/$B$57)*100</f>
-        <v>2.3982253132681821</v>
+        <v>2.6691324366319362</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="23">
         <v>2.6</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
       <c r="M39">
         <f>(A39/$B$57)*100</f>
-        <v>5.567308762943993</v>
+        <v>6.1962002993241372</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="20">
         <f>SUM(K23:K33)</f>
         <v>11.9755</v>
       </c>
-      <c r="C49" s="11"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="9" t="s">
         <v>79</v>
       </c>
@@ -3928,50 +4042,50 @@
       <c r="A50" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="11">
-        <v>2.6</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="C50" s="20"/>
       <c r="D50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="20">
         <f>B50+B49</f>
-        <v>14.5755</v>
-      </c>
-      <c r="C51" s="11"/>
+        <v>13.775500000000001</v>
+      </c>
+      <c r="C51" s="20"/>
       <c r="D51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="18">
         <f>SUM(K5:K20)</f>
         <v>17.705700000000004</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="9" t="s">
         <v>79</v>
       </c>
@@ -3980,10 +4094,10 @@
       <c r="A54" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="20">
-        <v>5.8</v>
-      </c>
-      <c r="C54" s="21"/>
+      <c r="B54" s="18">
+        <v>1.86</v>
+      </c>
+      <c r="C54" s="19"/>
       <c r="D54" s="9" t="s">
         <v>79</v>
       </c>
@@ -3992,50 +4106,50 @@
       <c r="A55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="18">
         <f>B54+B53</f>
-        <v>23.505700000000004</v>
-      </c>
-      <c r="C55" s="21"/>
+        <v>19.565700000000003</v>
+      </c>
+      <c r="C55" s="19"/>
       <c r="D55" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="15">
+        <v>133</v>
+      </c>
+      <c r="B56" s="21">
         <f>SUM(K31:K34)</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="20">
         <f>B55+B51+B56</f>
-        <v>46.7012</v>
-      </c>
-      <c r="C57" s="11"/>
+        <v>41.961200000000005</v>
+      </c>
+      <c r="C57" s="20"/>
       <c r="D57" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>131</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4059,23 +4173,30 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>(A60/B57)*100</f>
-        <v>15.946057060632274</v>
+        <v>17.747347549641095</v>
       </c>
       <c r="B61">
         <f>(B60/B57)*100</f>
-        <v>6.8734850496346995</v>
+        <v>7.649924215704031</v>
       </c>
       <c r="C61">
         <f>(C60/B57)*100</f>
-        <v>1.7091637902238059</v>
+        <v>1.9022334918925101</v>
       </c>
       <c r="D61">
         <f>(D60/B57)*100</f>
-        <v>8.813478026260567</v>
+        <v>9.8090617046223638</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B57:C57"/>
@@ -4084,15 +4205,8 @@
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A38:K38"/>
     <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A35:K35"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
@@ -4158,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4170,37 +4284,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,56 +4339,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/BOMs/BOM_globale.xlsx
+++ b/BOMs/BOM_globale.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
   <si>
     <t>Mouser</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Gain</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/bak/lp-402025-is-3/batterie-lithium-pol-3-7v-165/dp/2077885</t>
+  </si>
+  <si>
+    <t>Batterie Li Poly</t>
   </si>
 </sst>
 </file>
@@ -734,6 +740,12 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,12 +774,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,14 +841,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.42928455818022748"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -875,7 +874,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -940,633 +939,43 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="25"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="34"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>ele!$A$60:$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>total IC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total Connector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>total Passiv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>total HMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ele!$M$5:$M$39</c:f>
+              <c:f>ele!$A$62:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.1476125563615911</c:v>
+                  <c:v>40.718413355211524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5023116593424399</c:v>
+                  <c:v>6.3613231552162848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.613357101322173</c:v>
+                  <c:v>1.5818093901849339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1943509718501852E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3354908820529437E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20328303289705729</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1609868163922856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64583472350647742</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0533540508851034</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29789424515981427</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3607809118900316</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.73162826611250387</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.86031858002154371</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0485877429625463</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.9560355757223329</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.54812541109405821</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.79597342306702379</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7888239611831882</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.1466878926246151</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.012945292317664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.20328303289705729</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.3401142007378239E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0485877429625463E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4546485801168698</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8616340810081686</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1915769806392571</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.034927504456496</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.6691324366319362</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.1962002993241372</c:v>
+                  <c:v>6.1155897996876796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,8 +991,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="75"/>
-      </c:doughnutChart>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1594,6 +1002,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1606,7 +1015,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2223,20 +1632,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2255,15 +1664,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_R" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_R" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2532,7 +1941,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,46 +1962,45 @@
       <c r="C1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>mec!F3</f>
-        <v>46.41</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8">
-        <f>ele!B57</f>
-        <v>41.961200000000005</v>
+        <f>ele!B58</f>
+        <v>50.461200000000005</v>
       </c>
       <c r="C2" s="8">
         <f>B2+A2</f>
-        <v>88.371200000000002</v>
+        <v>75.461200000000005</v>
       </c>
       <c r="D2">
         <f>C2+B5</f>
-        <v>123.3712</v>
+        <v>110.46120000000001</v>
       </c>
       <c r="E2">
         <f>5</f>
         <v>5</v>
       </c>
       <c r="F2">
-        <f>E2*D2</f>
-        <v>616.85599999999999</v>
+        <f>E2*C2</f>
+        <v>377.30600000000004</v>
       </c>
       <c r="G2">
         <f>E2*130</f>
@@ -2600,14 +2008,14 @@
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>33.144000000000005</v>
+        <v>272.69399999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C4" t="s">
@@ -2626,8 +2034,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2640,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,42 +2061,44 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2724,23 +2134,23 @@
       </c>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2780,11 +2190,11 @@
         <v>123</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M20" si="0">(K5/$B$57)*100</f>
-        <v>5.1476125563615911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M5:M20" si="0">(K5/$B$58)*100</f>
+        <v>4.2805165156595564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2825,10 +2235,10 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>2.5023116593424399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.0808066395567288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2869,10 +2279,10 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>19.613357101322173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16.309560612906548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2912,10 +2322,10 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4.1943509718501852E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.4878282720188974E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2955,10 +2365,10 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>2.3354908820529437E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9420861969196131E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2998,10 +2408,10 @@
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>0.20328303289705729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.16904076795637044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -3042,10 +2452,10 @@
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>4.1609868163922856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.4600841834914742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -3086,10 +2496,10 @@
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>0.64583472350647742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.53704628506654617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -3130,10 +2540,10 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>1.0533540508851034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.87592050922292775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -3174,10 +2584,10 @@
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.29789424515981427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.24771507613770577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -3218,10 +2628,10 @@
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>1.3607809118900316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.13156246779704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
@@ -3262,7 +2672,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.73162826611250387</v>
+        <v>0.60838822699420536</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3306,7 +2716,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.86031858002154371</v>
+        <v>0.7154011398856942</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3349,7 +2759,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>1.0485877429625463</v>
+        <v>0.87195706800472439</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3392,7 +2802,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>3.9560355757223329</v>
+        <v>3.2896562111087322</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3436,23 +2846,23 @@
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.54812541109405821</v>
+        <v>0.45579574009337859</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -3505,8 +2915,8 @@
         <v>123</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M29" si="5">(K23/$B$57)*100</f>
-        <v>0.79597342306702379</v>
+        <f t="shared" ref="M23:M29" si="5">(K23/$B$58)*100</f>
+        <v>0.66189468343994984</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3548,7 +2958,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>0.7888239611831882</v>
+        <v>0.65594952161264497</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3590,7 +3000,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>4.1466878926246151</v>
+        <v>3.4481938598368642</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3634,7 +3044,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>14.012945292317664</v>
+        <v>11.65251718151768</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3677,7 +3087,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>0.20328303289705729</v>
+        <v>0.16904076795637044</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3721,7 +3131,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>7.3401142007378239E-2</v>
+        <v>6.1036994760330705E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3765,23 +3175,23 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>1.0485877429625463E-2</v>
+        <v>8.7195706800472436E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -3818,8 +3228,8 @@
         <v>127</v>
       </c>
       <c r="M31">
-        <f>(K31/$B$57)*100</f>
-        <v>2.4546485801168698</v>
+        <f>(K31/$B$58)*100</f>
+        <v>2.0411722273746955</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3857,8 +3267,8 @@
         <v>123</v>
       </c>
       <c r="M32">
-        <f>(K32/$B$57)*100</f>
-        <v>4.8616340810081686</v>
+        <f>(K32/$B$58)*100</f>
+        <v>4.0427100425673581</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3896,8 +3306,8 @@
         <v>125</v>
       </c>
       <c r="M33">
-        <f>(K33/$B$57)*100</f>
-        <v>1.1915769806392571</v>
+        <f>(K33/$B$58)*100</f>
+        <v>0.99086030455082308</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3924,145 +3334,159 @@
         <v>127</v>
       </c>
       <c r="M34">
-        <f>(K34/$B$57)*100</f>
-        <v>12.034927504456496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+        <f>(K34/$B$58)*100</f>
+        <v>10.007689075963313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" s="3">
+        <v>15.14</v>
+      </c>
+      <c r="K35" s="3">
+        <f>J35*C35</f>
+        <v>15.14</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M35">
+        <f>(K35/$B$58)*100</f>
+        <v>30.003250021798927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="M37">
-        <f>(A37/$B$57)*100</f>
-        <v>2.6691324366319362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="M38">
+        <f>(A38/$B$58)*100</f>
+        <v>2.219527082193844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
         <v>2.6</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="M39">
-        <f>(A39/$B$57)*100</f>
-        <v>6.1962002993241372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="M40">
+        <f>(A40/$B$58)*100</f>
+        <v>5.152473583664281</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="20">
-        <f>SUM(K23:K33)</f>
-        <v>11.9755</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="C50" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="B50" s="22">
+        <f>SUM(K23:K29)</f>
+        <v>8.4055</v>
+      </c>
+      <c r="C50" s="22"/>
       <c r="D50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="20">
-        <f>B50+B49</f>
-        <v>13.775500000000001</v>
-      </c>
-      <c r="C51" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="B51" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="C51" s="22"/>
       <c r="D51" s="9" t="s">
         <v>79</v>
       </c>
@@ -4072,120 +3496,137 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="22">
+        <f>B51+B50</f>
+        <v>10.205500000000001</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B54" s="20">
         <f>SUM(K5:K20)</f>
         <v>17.705700000000004</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="18">
-        <v>1.86</v>
-      </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="18">
-        <f>B54+B53</f>
-        <v>19.565700000000003</v>
-      </c>
-      <c r="C55" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="B55" s="20">
+        <v>1.86</v>
+      </c>
+      <c r="C55" s="21"/>
       <c r="D55" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="20">
+        <f>B55+B54</f>
+        <v>19.565700000000003</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="21">
-        <f>SUM(K31:K34)</f>
-        <v>8.620000000000001</v>
-      </c>
-      <c r="C56" s="22"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="B57" s="23">
+        <f>SUM(K33:K35)</f>
+        <v>20.69</v>
+      </c>
+      <c r="C57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="20">
-        <f>B55+B51+B56</f>
-        <v>41.961200000000005</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="9" t="s">
+      <c r="B58" s="22">
+        <f>B56+B52+B57</f>
+        <v>50.461200000000005</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>129</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>130</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f>K5+K12+K15+K23+K24+K25+K32</f>
-        <v>7.4470000000000001</v>
-      </c>
-      <c r="B60">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>K5+K12+K15+K23+K24+K25+K35</f>
+        <v>20.547000000000001</v>
+      </c>
+      <c r="B61">
         <f>K33+K19+K6</f>
         <v>3.21</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <f>K29+K28+K27+K18+K14+K10+K9+K8</f>
         <v>0.79820000000000002</v>
       </c>
-      <c r="D60">
-        <f>K31+K20+K17+K16+K13+K11</f>
-        <v>4.1159999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f>(A60/B57)*100</f>
-        <v>17.747347549641095</v>
-      </c>
-      <c r="B61">
-        <f>(B60/B57)*100</f>
-        <v>7.649924215704031</v>
-      </c>
-      <c r="C61">
-        <f>(C60/B57)*100</f>
-        <v>1.9022334918925101</v>
-      </c>
       <c r="D61">
-        <f>(D60/B57)*100</f>
-        <v>9.8090617046223638</v>
+        <f>K20+K17+K16+K13+K11</f>
+        <v>3.0859999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>(A61/B58)*100</f>
+        <v>40.718413355211524</v>
+      </c>
+      <c r="B62">
+        <f>(B61/B58)*100</f>
+        <v>6.3613231552162848</v>
+      </c>
+      <c r="C62">
+        <f>(C61/B58)*100</f>
+        <v>1.5818093901849339</v>
+      </c>
+      <c r="D62">
+        <f>(D61/B58)*100</f>
+        <v>6.1155897996876796</v>
       </c>
     </row>
   </sheetData>
@@ -4194,22 +3635,22 @@
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A38:K38"/>
     <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:I22">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
@@ -4261,10 +3702,11 @@
     <hyperlink ref="I27" r:id="rId38"/>
     <hyperlink ref="I18" r:id="rId39"/>
     <hyperlink ref="I33" r:id="rId40"/>
+    <hyperlink ref="I35" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
-  <drawing r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
+  <drawing r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -4273,7 +3715,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,19 +3726,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -4305,11 +3747,11 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="3" t="s">
         <v>145</v>
       </c>

--- a/BOMs/BOM_globale.xlsx
+++ b/BOMs/BOM_globale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Daverni\work_ide\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Daverni\work_ide\boms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -841,7 +841,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1002,7 +1001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1664,15 +1662,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_R" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_G_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SKY_R" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
